--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H2">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I2">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J2">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>151.0722613575938</v>
+        <v>55.69655408585611</v>
       </c>
       <c r="R2">
-        <v>1359.650352218344</v>
+        <v>501.2689867727049</v>
       </c>
       <c r="S2">
-        <v>0.03587221759362314</v>
+        <v>0.04443965458835783</v>
       </c>
       <c r="T2">
-        <v>0.04877274680917953</v>
+        <v>0.04995007238930378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H3">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I3">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J3">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>66.41245100684168</v>
+        <v>42.10622871669167</v>
       </c>
       <c r="R3">
-        <v>597.712059061575</v>
+        <v>378.956058450225</v>
       </c>
       <c r="S3">
-        <v>0.01576968446778009</v>
+        <v>0.03359608670410277</v>
       </c>
       <c r="T3">
-        <v>0.02144084975511563</v>
+        <v>0.03776192633384892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H4">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I4">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J4">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>86.18717956751333</v>
+        <v>56.63628494771189</v>
       </c>
       <c r="R4">
-        <v>775.6846161076199</v>
+        <v>509.726564529407</v>
       </c>
       <c r="S4">
-        <v>0.0204652080497311</v>
+        <v>0.04518945528235617</v>
       </c>
       <c r="T4">
-        <v>0.02782499877521243</v>
+        <v>0.05079284669278766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H5">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I5">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J5">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>42.22196972698033</v>
+        <v>12.63107529745283</v>
       </c>
       <c r="R5">
-        <v>253.331818361882</v>
+        <v>75.786451784717</v>
       </c>
       <c r="S5">
-        <v>0.01002563721272764</v>
+        <v>0.01007819303206925</v>
       </c>
       <c r="T5">
-        <v>0.009087401489297707</v>
+        <v>0.007551910955328276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H6">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I6">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J6">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>81.40203112800445</v>
+        <v>69.48369709401076</v>
       </c>
       <c r="R6">
-        <v>732.61828015204</v>
+        <v>625.353273846097</v>
       </c>
       <c r="S6">
-        <v>0.01932897109598922</v>
+        <v>0.05544026105493055</v>
       </c>
       <c r="T6">
-        <v>0.02628014314660649</v>
+        <v>0.0623147294601421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J7">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>268.2820665631324</v>
+        <v>156.0049586637311</v>
       </c>
       <c r="R7">
-        <v>2414.538599068192</v>
+        <v>1404.04462797358</v>
       </c>
       <c r="S7">
-        <v>0.06370377051177847</v>
+        <v>0.1244746033372253</v>
       </c>
       <c r="T7">
-        <v>0.08661320872767478</v>
+        <v>0.1399091758231875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J8">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>117.9387231085667</v>
@@ -948,10 +948,10 @@
         <v>1061.4485079771</v>
       </c>
       <c r="S8">
-        <v>0.02800463500079799</v>
+        <v>0.09410198177534376</v>
       </c>
       <c r="T8">
-        <v>0.03807578856290757</v>
+        <v>0.1057704171014588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J9">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>153.0557260335733</v>
+        <v>158.6371264282369</v>
       </c>
       <c r="R9">
-        <v>1377.50153430216</v>
+        <v>1427.734137854132</v>
       </c>
       <c r="S9">
-        <v>0.03634319271378491</v>
+        <v>0.1265747804162764</v>
       </c>
       <c r="T9">
-        <v>0.04941309613325244</v>
+        <v>0.1422697701640005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H10">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I10">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J10">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>74.97999428172933</v>
+        <v>35.37939486561534</v>
       </c>
       <c r="R10">
-        <v>449.879965690376</v>
+        <v>212.276369193692</v>
       </c>
       <c r="S10">
-        <v>0.01780405380757619</v>
+        <v>0.02822882157035154</v>
       </c>
       <c r="T10">
-        <v>0.01613788546837773</v>
+        <v>0.02115275488322083</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H11">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I11">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J11">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>144.5580077851911</v>
+        <v>194.6224765762858</v>
       </c>
       <c r="R11">
-        <v>1301.02207006672</v>
+        <v>1751.602289186572</v>
       </c>
       <c r="S11">
-        <v>0.03432540337697396</v>
+        <v>0.1552870868967685</v>
       </c>
       <c r="T11">
-        <v>0.04666966026448594</v>
+        <v>0.1745423384467472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H12">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I12">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J12">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>1069.603908844522</v>
+        <v>83.38949503033</v>
       </c>
       <c r="R12">
-        <v>6417.623453067135</v>
+        <v>500.33697018198</v>
       </c>
       <c r="S12">
-        <v>0.2539782208345948</v>
+        <v>0.0665355409552441</v>
       </c>
       <c r="T12">
-        <v>0.2302100119213818</v>
+        <v>0.04985719950587552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H13">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I13">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J13">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>470.2055596078</v>
+        <v>63.04191000585001</v>
       </c>
       <c r="R13">
-        <v>2821.2333576468</v>
+        <v>378.2514600351</v>
       </c>
       <c r="S13">
-        <v>0.1116506498043129</v>
+        <v>0.0503004315299599</v>
       </c>
       <c r="T13">
-        <v>0.101201974476466</v>
+        <v>0.03769171504456196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H14">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I14">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J14">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>610.2122476308799</v>
+        <v>84.79647044058201</v>
       </c>
       <c r="R14">
-        <v>3661.27348578528</v>
+        <v>508.778822643492</v>
       </c>
       <c r="S14">
-        <v>0.1448953390159104</v>
+        <v>0.06765815082352301</v>
       </c>
       <c r="T14">
-        <v>0.1313355043302275</v>
+        <v>0.05069840682705287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H15">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I15">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J15">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>298.934982856952</v>
+        <v>18.911385237963</v>
       </c>
       <c r="R15">
-        <v>1195.739931427808</v>
+        <v>75.645540951852</v>
       </c>
       <c r="S15">
-        <v>0.07098232762934387</v>
+        <v>0.0150891817556064</v>
       </c>
       <c r="T15">
-        <v>0.04289302821861715</v>
+        <v>0.007537869579364925</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H16">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I16">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J16">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>576.3330071316267</v>
+        <v>104.031757594522</v>
       </c>
       <c r="R16">
-        <v>3457.99804278976</v>
+        <v>624.1905455671319</v>
       </c>
       <c r="S16">
-        <v>0.1368506888850754</v>
+        <v>0.08300577027788428</v>
       </c>
       <c r="T16">
-        <v>0.1240437019211974</v>
+        <v>0.06219886679311912</v>
       </c>
     </row>
   </sheetData>
